--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/09,25/12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25/Заказ 12,09,25.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/09,25/12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25/Заказ 12,09,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\09,25\12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFECF8-01C7-4E70-B23D-7D8B14BC5F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35880A-35DA-4C22-96B3-C39A79FB46E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,12 +244,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,7 +984,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -993,12 +993,12 @@
     <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="73.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="10"/>
+    <col min="6" max="6" width="10.5" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1007,9 +1007,9 @@
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3"/>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <f>SUM(F4:F102)</f>
         <v>4030.4</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <f>VLOOKUP(C4,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>E4*D4</f>
         <v>90</v>
       </c>
@@ -1061,7 +1061,7 @@
         <f>VLOOKUP(C5,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F35" si="0">E5*D5</f>
         <v>80</v>
       </c>
@@ -1083,7 +1083,7 @@
         <f>VLOOKUP(C6,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -1105,7 +1105,7 @@
         <f>VLOOKUP(C7,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.45</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>157.5</v>
       </c>
@@ -1127,7 +1127,7 @@
         <f>VLOOKUP(C8,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -1149,7 +1149,7 @@
         <f>VLOOKUP(C9,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -1171,7 +1171,7 @@
         <f>VLOOKUP(C10,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1193,7 +1193,7 @@
         <f>VLOOKUP(C11,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -1215,7 +1215,7 @@
         <f>VLOOKUP(C12,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.33</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>125.4</v>
       </c>
@@ -1237,7 +1237,7 @@
         <f>VLOOKUP(C13,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -1259,7 +1259,7 @@
         <f>VLOOKUP(C14,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1281,7 +1281,7 @@
         <f>VLOOKUP(C15,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1303,7 +1303,7 @@
         <f>VLOOKUP(C16,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -1325,7 +1325,7 @@
         <f>VLOOKUP(C17,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
@@ -1347,7 +1347,7 @@
         <f>VLOOKUP(C18,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1369,7 +1369,7 @@
         <f>VLOOKUP(C19,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1391,7 +1391,7 @@
         <f>VLOOKUP(C20,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.6</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
@@ -1413,7 +1413,7 @@
         <f>VLOOKUP(C21,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -1429,7 +1429,7 @@
         <f>VLOOKUP(C22,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1445,7 +1445,7 @@
         <f>VLOOKUP(C23,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.3</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -1461,7 +1461,7 @@
         <f>VLOOKUP(C24,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1477,7 +1477,7 @@
         <f>VLOOKUP(C25,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1493,7 +1493,7 @@
         <f>VLOOKUP(C26,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>122.49999999999999</v>
       </c>
@@ -1509,7 +1509,7 @@
         <f>VLOOKUP(C27,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -1525,7 +1525,7 @@
         <f>VLOOKUP(C28,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.4</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -1541,7 +1541,7 @@
         <f>VLOOKUP(C29,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -1557,7 +1557,7 @@
         <f>VLOOKUP(C30,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -1573,7 +1573,7 @@
         <f>VLOOKUP(C31,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -1589,7 +1589,7 @@
         <f>VLOOKUP(C32,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.35</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -1605,7 +1605,7 @@
         <f>VLOOKUP(C33,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.6</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -1621,7 +1621,7 @@
         <f>VLOOKUP(C34,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.33</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -1637,7 +1637,7 @@
         <f>VLOOKUP(C35,[1]TDSheet!$C:$E,3,0)</f>
         <v>0.6</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>

--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/09,25/12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25/Заказ 12,09,25.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/09,25/12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25/Заказ 12,09,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\09,25\12,09,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 15,09,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35880A-35DA-4C22-96B3-C39A79FB46E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611BC13B-1D26-47F5-B8FD-ACF3D926EDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$B$3:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -984,7 +984,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
